--- a/clientes.xlsx
+++ b/clientes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ID</t>
   </si>
@@ -26,40 +26,22 @@
     <t>Document</t>
   </si>
   <si>
-    <t>01/04/2023</t>
+    <t>23/08/2023</t>
   </si>
   <si>
-    <t>1@teste.com</t>
+    <t>rua 1</t>
   </si>
   <si>
     <t>001</t>
   </si>
   <si>
-    <t>01/05/2023</t>
+    <t>23/08/2022</t>
   </si>
   <si>
-    <t>2@teste.com</t>
+    <t>rua 2</t>
   </si>
   <si>
     <t>002</t>
-  </si>
-  <si>
-    <t>01/06/2023</t>
-  </si>
-  <si>
-    <t>3@teste.com</t>
-  </si>
-  <si>
-    <t>003</t>
-  </si>
-  <si>
-    <t>01/07/2023</t>
-  </si>
-  <si>
-    <t>4@teste.com</t>
-  </si>
-  <si>
-    <t>004</t>
   </si>
 </sst>
 </file>
@@ -104,7 +86,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -152,34 +134,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
